--- a/sheets/2022-1-90_suc-1.xlsx
+++ b/sheets/2022-1-90_suc-1.xlsx
@@ -397,182 +397,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>id</v>
+        <v>Hora</v>
       </c>
       <c r="B1" t="str">
-        <v>title</v>
+        <v>Contador</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="str">
+        <v>00:00-01:00</v>
       </c>
       <c r="B2" t="str">
-        <v>title-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="str">
+        <v>01:00-02:00</v>
       </c>
       <c r="B3" t="str">
-        <v>title-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" t="str">
+        <v>02:00-03:00</v>
       </c>
       <c r="B4" t="str">
-        <v>title-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="str">
+        <v>03:00-04:00</v>
       </c>
       <c r="B5" t="str">
-        <v>title-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>4</v>
+      <c r="A6" t="str">
+        <v>04:00-05:00</v>
       </c>
       <c r="B6" t="str">
-        <v>title-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="str">
+        <v>05:00-06:00</v>
+      </c>
+      <c r="B7" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>06:00-07:00</v>
+      </c>
+      <c r="B8" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>07:00-08:00</v>
+      </c>
+      <c r="B9" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>08:00-09:00</v>
+      </c>
+      <c r="B10" t="str">
         <v>5</v>
       </c>
-      <c r="B7" t="str">
-        <v>title-5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="str">
-        <v>title-6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="str">
-        <v>title-7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="str">
-        <v>title-8</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>9</v>
+      <c r="A11" t="str">
+        <v>09:00-10:00</v>
       </c>
       <c r="B11" t="str">
-        <v>title-9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>10</v>
+      <c r="A12" t="str">
+        <v>10:00-11:00</v>
       </c>
       <c r="B12" t="str">
-        <v>title-10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>11</v>
+      <c r="A13" t="str">
+        <v>11:00-12:00</v>
       </c>
       <c r="B13" t="str">
-        <v>title-11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>12</v>
+      <c r="A14" t="str">
+        <v>12:00-13:00</v>
       </c>
       <c r="B14" t="str">
-        <v>title-12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>13</v>
+      <c r="A15" t="str">
+        <v>13:00-14:00</v>
       </c>
       <c r="B15" t="str">
-        <v>title-13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>14</v>
+      <c r="A16" t="str">
+        <v>14:00-15:00</v>
       </c>
       <c r="B16" t="str">
-        <v>title-14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>15</v>
+      <c r="A17" t="str">
+        <v>15:00-16:00</v>
       </c>
       <c r="B17" t="str">
-        <v>title-15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>16</v>
+      <c r="A18" t="str">
+        <v>16:00-17:00</v>
       </c>
       <c r="B18" t="str">
-        <v>title-16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>17</v>
+      <c r="A19" t="str">
+        <v>17:00-18:00</v>
       </c>
       <c r="B19" t="str">
-        <v>title-17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>18</v>
+      <c r="A20" t="str">
+        <v>18:00-19:00</v>
       </c>
       <c r="B20" t="str">
-        <v>title-18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>19</v>
+      <c r="A21" t="str">
+        <v>19:00-20:00</v>
       </c>
       <c r="B21" t="str">
-        <v>title-19</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>20:00-21:00</v>
+      </c>
+      <c r="B22" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>21:00-22:00</v>
+      </c>
+      <c r="B23" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>22:00-23:00</v>
+      </c>
+      <c r="B24" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>23:00-24:00</v>
+      </c>
+      <c r="B25" t="str">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B25"/>
   </ignoredErrors>
 </worksheet>
 </file>